--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27212374650212801</v>
+        <v>0.27190224152723685</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27782143202941717</v>
+        <v>0.27762423439395828</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0050601181217606161</v>
+        <v>-0.0050352452070996723</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00010422156053857555</v>
+        <v>0.00010123641654144588</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0011942881722177613</v>
+        <v>-0.0011565721366977259</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00010181604353188139</v>
+        <v>0.00010312515053895131</v>
       </c>
       <c r="H3" s="0">
-        <v>-6.7850513039925493e-05</v>
+        <v>-6.7135260714282479e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00022579050778816234</v>
+        <v>-0.00022137089671385725</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00085806076718802915</v>
+        <v>-0.0008580611835595775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.27300196790244163</v>
+        <v>0.27312898546371989</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0015578085921250096</v>
+        <v>-0.0019015034224111596</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00055718642620577043</v>
+        <v>0.00055176303277792982</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00010021829026506816</v>
+        <v>9.9907966260616351e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00012113869881181266</v>
+        <v>0.0001209920247802142</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0030960944896613486</v>
+        <v>-0.0030871138455360911</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0003596570638495045</v>
+        <v>0.00035352187958286252</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00052185205504451382</v>
+        <v>-0.00052185962890566318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28644537227429956</v>
+        <v>0.28675355805503216</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01029512692584141</v>
+        <v>0.01079421143679549</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0070041311169288609</v>
+        <v>-0.0070197991412063966</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00033892767892183725</v>
+        <v>0.00034976274163227175</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0012195499687428838</v>
+        <v>0.0012089853445363477</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015273118114092587</v>
+        <v>-0.0015260485608578731</v>
       </c>
       <c r="H5" s="0">
-        <v>5.8235262221428342e-06</v>
+        <v>5.3182464915103453e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0006932446845773426</v>
+        <v>-0.00069297105011207802</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00075427783025067141</v>
+        <v>-0.0007542776137148266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21964009294721637</v>
+        <v>0.21915614346304746</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021839175350306356</v>
+        <v>0.021718509437570633</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00042800985531895968</v>
+        <v>-0.00042743729192465331</v>
       </c>
       <c r="F6" s="0">
-        <v>2.2459123339666998e-05</v>
+        <v>2.3231732412905354e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010708020493436654</v>
+        <v>-0.00010820641071184305</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0025435954553268279</v>
+        <v>-0.0025634545427196346</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0064174411372122098</v>
+        <v>-0.0064174365488265939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.22287633420891526</v>
+        <v>0.222553466560727</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0027062981185007611</v>
+        <v>-0.0027435837580150921</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0013920612110156123</v>
+        <v>-0.0013753478828626474</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0073019217452259238</v>
+        <v>-0.0073033289792951575</v>
       </c>
       <c r="G7" s="0">
-        <v>0.001333016361733622</v>
+        <v>0.0013371127670396639</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00039241229520532418</v>
+        <v>0.00039198436765868367</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0013096174899887569</v>
+        <v>-0.001309619237427645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2674189605029389</v>
+        <v>0.26781604447333335</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.055380829558498504</v>
+        <v>-0.054981178824773866</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>9.5568629706095607e-05</v>
+        <v>9.6933297367771657e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00014621528167699528</v>
+        <v>-0.00014600928447466548</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.7803565246356213e-05</v>
+        <v>5.7744465132277192e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00056863241188002934</v>
+        <v>0.00058430443242319936</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0011698057957960362</v>
+        <v>0.0011697722660345133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.27506634711544564</v>
+        <v>0.27542285401373273</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0063930717660859639</v>
+        <v>0.006431796016235369</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0032800459094261361</v>
+        <v>-0.0032915808941957267</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0042337811586236913</v>
+        <v>-0.0042442079923689984</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0023644966369095093</v>
+        <v>0.0023494281690730843</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017754969932132512</v>
+        <v>-0.00017751350632216512</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0002329815538131762</v>
+        <v>0.00023351218478545542</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00023935744488434718</v>
+        <v>-0.00023935840994854241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.23023188835527816</v>
+        <v>0.23088365020532678</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094255338229743524</v>
+        <v>0.094186412990487745</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00091293098750319115</v>
+        <v>-0.00091030819026355673</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00010915717037128151</v>
+        <v>-0.00010897130556109803</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.6661346014399243e-05</v>
+        <v>-1.6650701556673681e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0011260934729657979</v>
+        <v>0.0011234820384054506</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002511355797245545</v>
+        <v>-0.0025089372037770748</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0060865799024313327</v>
+        <v>0.0060865566002865079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.27397360793298908</v>
+        <v>0.27393717556545016</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.034145534839373243</v>
+        <v>-0.03407729415899588</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0034901843229107393</v>
+        <v>0.0034790442955649576</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0056389922729942659</v>
+        <v>0.0056212747207544014</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0040387964340833724</v>
+        <v>0.0040413386042110755</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00091164135331472018</v>
+        <v>0.00091243400586765028</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0055667733337483039</v>
+        <v>0.005552675991624849</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0086237781127414814</v>
+        <v>0.0086237788170338003</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.24229227434531142</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.067390310106783619</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0023751904307887351</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.7415191255075843e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-4.7712224325675936e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0033315497051391884</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.014794525487071941</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27190224152723685</v>
+        <v>0.27148181322570247</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27762423439395828</v>
+        <v>0.2772637591813884</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0050352452070996723</v>
+        <v>-0.0050999386963210026</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00010123641654144588</v>
+        <v>0.0001019782920737137</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0011565721366977259</v>
+        <v>-0.0011840211425909668</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00010312515053895131</v>
+        <v>0.0001060228030429332</v>
       </c>
       <c r="H3" s="0">
-        <v>-6.7135260714282479e-05</v>
+        <v>-6.7761473139442492e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00022137089671385725</v>
+        <v>-0.00022168020135219802</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.0008580611835595775</v>
+        <v>-0.00085806235052737767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.27312898546371989</v>
+        <v>0.27411113312025154</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0019015034224111596</v>
+        <v>-0.0015294823046541682</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00055176303277792982</v>
+        <v>0.00055179300154057753</v>
       </c>
       <c r="F4" s="0">
-        <v>9.9907966260616351e-05</v>
+        <v>9.78539272081755e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0001209920247802142</v>
+        <v>0.00012008298005284656</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0030871138455360911</v>
+        <v>-0.0030655127458109285</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00035352187958286252</v>
+        <v>0.00034880500583583127</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00052185962890566318</v>
+        <v>-0.00052188965312255364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28675355805503216</v>
+        <v>0.28698746613358683</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01079421143679549</v>
+        <v>0.010143422869709012</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0070197991412063966</v>
+        <v>-0.0070097764504028154</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00034976274163227175</v>
+        <v>0.0003386776114347016</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0012089853445363477</v>
+        <v>0.0011634313550057335</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015260485608578731</v>
+        <v>-0.00152798406299214</v>
       </c>
       <c r="H5" s="0">
-        <v>5.3182464915103453e-06</v>
+        <v>5.3990468894412403e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00069297105011207802</v>
+        <v>-0.00069250756541787645</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0007542776137148266</v>
+        <v>-0.00075427411562062341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21915614346304746</v>
+        <v>0.21840426227993415</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021718509437570633</v>
+        <v>0.022170964039452734</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00042743729192465331</v>
+        <v>-0.00042817499354010335</v>
       </c>
       <c r="F6" s="0">
-        <v>2.3231732412905354e-05</v>
+        <v>2.4315013265876401e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010820641071184305</v>
+        <v>-0.00010944578439147765</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0025634545427196346</v>
+        <v>-0.0025748686030238241</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0064174365488265939</v>
+        <v>-0.0064174262610101618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.222553466560727</v>
+        <v>0.22179559346550926</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0027435837580150921</v>
+        <v>-0.0027537127304600884</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0013753478828626474</v>
+        <v>-0.0013469092325877527</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0073033289792951575</v>
+        <v>-0.0072630579399162575</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0013371127670396639</v>
+        <v>0.001341501570479766</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00039198436765868367</v>
+        <v>0.00039081152455529874</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.001309619237427645</v>
+        <v>-0.0013096204737939043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.26781604447333335</v>
+        <v>0.26799704473987129</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.054981178824773866</v>
+        <v>-0.055630623684054005</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>9.6933297367771657e-05</v>
+        <v>9.7986500702826172e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00014600928447466548</v>
+        <v>-0.00014590138549470282</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.7744465132277192e-05</v>
+        <v>5.7894764877603161e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00058430443242319936</v>
+        <v>0.0006077524777352327</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0011697722660345133</v>
+        <v>0.0011697827809530326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.27542285401373273</v>
+        <v>0.27555533794145226</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.006431796016235369</v>
+        <v>0.0063361755595164153</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0032915808941957267</v>
+        <v>-0.0033036091085514438</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0042442079923689984</v>
+        <v>-0.0042551296118627339</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0023494281690730843</v>
+        <v>0.0023712197795008496</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017751350632216512</v>
+        <v>-0.00017651498922814445</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00023351218478545542</v>
+        <v>0.00023404609159922792</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00023935840994854241</v>
+        <v>-0.00023935602570640535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.23088365020532678</v>
+        <v>0.23205803133911945</v>
       </c>
       <c r="C10" s="0">
-        <v>0.094186412990487745</v>
+        <v>0.094765895365815103</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00091030819026355673</v>
+        <v>-0.00091756364220210588</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00010897130556109803</v>
+        <v>-0.00011255412289628597</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.6650701556673681e-05</v>
+        <v>-1.6715354588999251e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0011234820384054506</v>
+        <v>0.0011362674442397607</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0025089372037770748</v>
+        <v>-0.0024522840492967042</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0060865566002865079</v>
+        <v>0.0060865656906644028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.27393717556545016</v>
+        <v>0.27538593490214341</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.03407729415899588</v>
+        <v>-0.034407752320281842</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0034790442955649576</v>
+        <v>0.0034666942029782286</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0056212747207544014</v>
+        <v>0.0054956005232482614</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0040413386042110755</v>
+        <v>0.0040682167047386142</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00091243400586765028</v>
+        <v>0.00091043194143619664</v>
       </c>
       <c r="I11" s="0">
-        <v>0.005552675991624849</v>
+        <v>0.00559605580876321</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0086237788170338003</v>
+        <v>0.0086237809149686262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.24229227434531142</v>
+        <v>0.37503830199212995</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.067390310106783619</v>
+        <v>-0.070324011800929523</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0023751904307887351</v>
+        <v>0.0025361014648907915</v>
       </c>
       <c r="F12" s="0">
-        <v>3.7415191255075843e-05</v>
+        <v>0.0033160126134077739</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-4.7712224325675936e-06</v>
+        <v>0.0019575797793933408</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0033315497051391884</v>
+        <v>0.015573583408144659</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.014794525487071941</v>
+        <v>-0.015040204810818247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.31294192550096744</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.043817308320376232</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0062192055206698182</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.023998487804780609</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00057409259402010004</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00043246831972719468</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00042785149175843571</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.011962885501678344</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.051917600680505965</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10621251050673768</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0014946982827100817</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00039575848667331809</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00022730882359697248</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.028744886224130094</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>2.439321743108458e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.27148181322570247</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.2772637591813884</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.27411113312025154</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28698746613358683</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.21840426227993415</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.22179559346550926</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.26799704473987129</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.27555533794145226</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.23205803133911945</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.27538593490214341</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.37503830199212995</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.31294192550096744</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.051917600680505965</v>
+        <v>0.12880861508360847</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10621251050673768</v>
+        <v>-0.087988799290764752</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0014946982827100817</v>
+        <v>-0.0015930276349065829</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00039575848667331809</v>
+        <v>-4.0729615037678829e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00022730882359697248</v>
+        <v>-0.001174563161025879</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.028744886224130094</v>
+        <v>-0.00044177847824807085</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>2.439321743108458e-05</v>
+        <v>-0.0034557128830694506</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.010165180847136024</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.075354396398013529</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.00047657967645671912</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.005481812505943701</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0057144155623060668</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0066317825133098418</v>
       </c>
     </row>
   </sheetData>
